--- a/Excell and Manipulation Function/Testes.xlsx
+++ b/Excell and Manipulation Function/Testes.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20228"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\Neural-Network---Matlab\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="R:\Users\benvi\OneDrive\Documents\NetBeansProjects\9CARDSIEGE_PA\Neural-Network---Matlab\Neural-Network---Matlab\Excell and Manipulation Function\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{CF7061FE-CB6A-445E-B93B-FDFA5ECBE2BB}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Ex1_a)" sheetId="1" r:id="rId1"/>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="373" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="373" uniqueCount="71">
   <si>
     <t>Funções de ativação</t>
   </si>
@@ -238,12 +239,18 @@
   </si>
   <si>
     <t>divideblock =(0.4,0.4,0.2)</t>
+  </si>
+  <si>
+    <t>Conf 31</t>
+  </si>
+  <si>
+    <t>traincsg</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -730,11 +737,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:K27"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -924,10 +931,10 @@
         <v>14</v>
       </c>
       <c r="J7" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="K7" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
@@ -1037,7 +1044,7 @@
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B11" s="1">
         <v>2</v>
@@ -1072,7 +1079,7 @@
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B12" s="8">
         <v>2</v>
@@ -1084,7 +1091,7 @@
         <v>49</v>
       </c>
       <c r="E12" s="8" t="s">
-        <v>49</v>
+        <v>70</v>
       </c>
       <c r="F12" s="1" t="s">
         <v>15</v>
@@ -1105,7 +1112,7 @@
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B13" s="8">
         <v>2</v>
@@ -1138,7 +1145,7 @@
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
-        <v>32</v>
+        <v>52</v>
       </c>
       <c r="B14" s="8">
         <v>2</v>
@@ -1171,7 +1178,7 @@
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
-        <v>52</v>
+        <v>37</v>
       </c>
       <c r="B15" s="8">
         <v>2</v>
@@ -1204,7 +1211,7 @@
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B16" s="8">
         <v>2</v>
@@ -1237,7 +1244,7 @@
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B17" s="8">
         <v>2</v>
@@ -1270,7 +1277,7 @@
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B18" s="8">
         <v>2</v>
@@ -1303,7 +1310,7 @@
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B19" s="8">
         <v>2</v>
@@ -1336,7 +1343,7 @@
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B20" s="8">
         <v>2</v>
@@ -1369,7 +1376,7 @@
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B21" s="8">
         <v>2</v>
@@ -1402,7 +1409,7 @@
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B22" s="8">
         <v>2</v>
@@ -1414,7 +1421,7 @@
         <v>22</v>
       </c>
       <c r="E22" s="8" t="s">
-        <v>41</v>
+        <v>18</v>
       </c>
       <c r="F22" s="1" t="s">
         <v>15</v>
@@ -1435,7 +1442,7 @@
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B23" s="8">
         <v>2</v>
@@ -1467,9 +1474,6 @@
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A24" s="4" t="s">
-        <v>47</v>
-      </c>
       <c r="B24" s="8">
         <v>2</v>
       </c>
@@ -1499,18 +1503,20 @@
         <v>34</v>
       </c>
     </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A25" s="4" t="s">
+        <v>50</v>
+      </c>
+    </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A26" s="4" t="s">
-        <v>50</v>
+      <c r="A26" s="9" t="s">
+        <v>33</v>
       </c>
       <c r="B26" s="4" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A27" s="9" t="s">
-        <v>33</v>
-      </c>
       <c r="B27" s="1" t="s">
         <v>67</v>
       </c>
@@ -1525,11 +1531,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:K38"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="B35" sqref="B35:K35"/>
+    <sheetView showGridLines="0" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="E39" sqref="E39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2644,34 +2650,37 @@
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B35">
-        <v>2</v>
-      </c>
-      <c r="C35">
-        <v>10</v>
-      </c>
-      <c r="D35" t="s">
+      <c r="A35" s="14" t="s">
+        <v>69</v>
+      </c>
+      <c r="B35" s="1">
+        <v>2</v>
+      </c>
+      <c r="C35" s="1">
+        <v>10</v>
+      </c>
+      <c r="D35" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E35" t="s">
+      <c r="E35" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F35" t="s">
+      <c r="F35" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="G35">
+      <c r="G35" s="1">
         <v>1.8425644657480578</v>
       </c>
-      <c r="H35" t="s">
+      <c r="H35" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="I35" t="s">
-        <v>14</v>
-      </c>
-      <c r="J35">
+      <c r="I35" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J35" s="1">
         <v>2.9866117404737382</v>
       </c>
-      <c r="K35">
+      <c r="K35" s="1">
         <v>2.0689655172413794</v>
       </c>
     </row>
@@ -2701,7 +2710,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -2713,7 +2722,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>

--- a/Excell and Manipulation Function/Testes.xlsx
+++ b/Excell and Manipulation Function/Testes.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20228"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="R:\Users\benvi\OneDrive\Documents\NetBeansProjects\9CARDSIEGE_PA\Neural-Network---Matlab\Neural-Network---Matlab\Excell and Manipulation Function\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\Neural-Network---Matlab\Excell and Manipulation Function\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{CF7061FE-CB6A-445E-B93B-FDFA5ECBE2BB}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Ex1_a)" sheetId="1" r:id="rId1"/>
@@ -28,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="373" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="372" uniqueCount="71">
   <si>
     <t>Funções de ativação</t>
   </si>
@@ -250,7 +249,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -737,10 +736,10 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:K27"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
@@ -1531,11 +1530,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K38"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="E39" sqref="E39"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="G44" sqref="G44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2689,9 +2688,7 @@
       <c r="A37" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="B37" s="4" t="s">
-        <v>51</v>
-      </c>
+      <c r="B37" s="4"/>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="9" t="s">
@@ -2710,7 +2707,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -2722,7 +2719,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
